--- a/simulations/raw_inclusion_exclusion/Oud_2018 IEC/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Oud_2018 IEC/output/tables/metrics/metrics_sim.xlsx
@@ -713,7 +713,7 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D3">
         <v>0.95</v>
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.6764705882352942</v>
+        <v>0.6848739495798319</v>
       </c>
       <c r="I3">
-        <v>0.09002145922746781</v>
+        <v>0.07178111587982833</v>
       </c>
       <c r="J3">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="K3">
-        <v>94.40000000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -755,34 +755,34 @@
         <v>18</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R3">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="S3">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="T3">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="U3">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="V3">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="W3">
-        <v>899</v>
+        <v>916</v>
       </c>
       <c r="X3">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="Y3">
-        <v>852</v>
+        <v>865</v>
       </c>
       <c r="Z3">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="AA3">
         <v>18</v>
@@ -800,19 +800,19 @@
         <v>2</v>
       </c>
       <c r="AF3">
-        <v>0.990343</v>
+        <v>0.994635</v>
       </c>
       <c r="AG3">
-        <v>0.964592</v>
+        <v>0.982833</v>
       </c>
       <c r="AH3">
-        <v>0.947425</v>
+        <v>0.954936</v>
       </c>
       <c r="AI3">
-        <v>0.9141629999999999</v>
+        <v>0.928112</v>
       </c>
       <c r="AJ3">
-        <v>0.7660940000000001</v>
+        <v>0.774678</v>
       </c>
     </row>
   </sheetData>
